--- a/Design Mapping.xlsx
+++ b/Design Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\Menu Card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\JavaScript\menu-card-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EB8A3-23CB-49F0-BECA-815A84CCB750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138DE05-A2C7-4DD6-B258-B342C0EEA454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -150,13 +150,70 @@
   </si>
   <si>
     <t>Rutuja Ganjure</t>
+  </si>
+  <si>
+    <t>Trupti</t>
+  </si>
+  <si>
+    <t>Dhongde</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Kandra</t>
+  </si>
+  <si>
+    <t>Sanjeevani</t>
+  </si>
+  <si>
+    <t>Balure</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Ragho</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>Kishori</t>
+  </si>
+  <si>
+    <t>Mestry</t>
+  </si>
+  <si>
+    <t>Vaishnavi</t>
+  </si>
+  <si>
+    <t>Kamble</t>
+  </si>
+  <si>
+    <t>Bhatade</t>
+  </si>
+  <si>
+    <t>Vrushali</t>
+  </si>
+  <si>
+    <t>Gavali</t>
+  </si>
+  <si>
+    <t>Vijayalaxmi</t>
+  </si>
+  <si>
+    <t>Ganganna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,16 +287,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,12 +331,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +382,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,22 +665,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="3" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -608,766 +688,922 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="18.5">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="18">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="6"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F4" s="6"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="6"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="6"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="6"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="6"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>7</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="6"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="6"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16">
         <v>9</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="6"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
         <v>10</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="6"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="14">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16">
         <v>11</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="6"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="14">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16">
         <v>12</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="6"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15"/>
+      <c r="E15" s="16">
         <v>13</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="6"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16">
         <v>14</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="F16" s="6"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="14">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
         <v>15</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="F17" s="6"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16">
         <v>16</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="F18" s="6"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="14">
         <v>17</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
         <v>17</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="F19" s="6"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="14">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16">
         <v>18</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="F20" s="6"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="14">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15"/>
+      <c r="E21" s="16">
         <v>19</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="F21" s="6"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="14">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16">
         <v>20</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="F22" s="6"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16">
         <v>21</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="F23" s="6"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16">
         <v>22</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="F24" s="6"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15"/>
+      <c r="E25" s="16">
         <v>23</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="F25" s="6"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
         <v>24</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="F26" s="6"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="14">
         <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
         <v>25</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="F27" s="6"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="14">
         <v>26</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
         <v>26</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="F28" s="6"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="14">
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15"/>
+      <c r="E29" s="16">
         <v>27</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="F29" s="6"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="14">
         <v>28</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
         <v>28</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="F30" s="6"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="14">
         <v>29</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
         <v>29</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="F31" s="6"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="14">
         <v>30</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
         <v>30</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="F32" s="6"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="14">
         <v>31</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15"/>
+      <c r="E33" s="16">
         <v>31</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="F33" s="6"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="14">
         <v>32</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
         <v>32</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="F34" s="6"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="14">
         <v>33</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="17"/>
+      <c r="E35" s="16">
         <v>33</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="F35" s="6"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="14">
         <v>34</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="17"/>
+      <c r="E36" s="16">
         <v>34</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="F36" s="6"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="14">
         <v>35</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17"/>
+      <c r="E37" s="16">
         <v>35</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="10"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="10"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="10"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="10"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="10"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="10"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.5">
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="7"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" ht="15.5">
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" ht="15.5">
-      <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.5">
+      <c r="F37" s="6"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.6">
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="16">
+        <v>36</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.6">
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="16">
+        <v>37</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.6">
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="16">
+        <v>38</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.6">
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="16">
+        <v>39</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.6">
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="16">
+        <v>40</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.6">
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="16">
+        <v>41</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.6">
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="16">
+        <v>42</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.6">
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="16">
+        <v>43</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6">
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="16">
+        <v>44</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.6">
+      <c r="B47" s="14">
+        <v>45</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="16">
+        <v>45</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.6">
       <c r="B48" s="10"/>
       <c r="C48" s="3"/>
-      <c r="E48" s="7"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.5">
+      <c r="D48" s="3"/>
+      <c r="F48" s="7"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.6">
       <c r="B49" s="10"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="7"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.5">
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.6">
       <c r="B50" s="10"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="7"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.5">
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.6">
       <c r="B51" s="10"/>
       <c r="C51" s="3"/>
-      <c r="E51" s="7"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.5">
+      <c r="D51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.6">
       <c r="B52" s="10"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="7"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="2:8" ht="15.5">
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.6">
       <c r="B53" s="10"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="7"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.5">
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.6">
       <c r="B54" s="10"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="7"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="2:8" ht="15.5">
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="7"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.6">
       <c r="B55" s="10"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="7"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:8" ht="15.5">
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="7"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.6">
       <c r="B56" s="10"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="7"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:8" ht="15.5">
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="7"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.6">
       <c r="B57" s="10"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="7"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:8" ht="15.5">
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="7"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.6">
       <c r="B58" s="10"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="7"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="2:8" ht="15.5">
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="7"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.6">
       <c r="B59" s="10"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="7"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:8" ht="15.5">
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="7"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.6">
       <c r="B60" s="10"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="7"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" ht="15.5">
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="7"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" ht="15.6">
       <c r="B61" s="10"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="7"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" ht="15.5">
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="7"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.6">
       <c r="B62" s="10"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="7"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:8" ht="15.5">
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="7"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.6">
       <c r="B63" s="10"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="7"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:8" ht="15.5">
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="7"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.6">
       <c r="B64" s="10"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="7"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="2:8" ht="15.5">
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="7"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.6">
       <c r="B65" s="10"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:8" ht="15.5">
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.6">
       <c r="B66" s="10"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="7"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="10"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="2:8" ht="15.5">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.6">
       <c r="B68" s="10"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="7"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="2:8" ht="15.5">
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.6">
       <c r="B69" s="10"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="7"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="2:8" ht="15.5">
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="7"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.6">
       <c r="B70" s="10"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="7"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="2:8" ht="15.5">
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.6">
       <c r="B71" s="10"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="7"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="2:8" ht="15.5">
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.6">
       <c r="B72" s="10"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="2:8" ht="15.5">
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" ht="15.6">
       <c r="B73" s="10"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="8"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" ht="15.5">
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="8"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.6">
       <c r="B74" s="10"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="9"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="2:8" ht="15.5">
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="9"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.6">
       <c r="B75" s="10"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="8"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="D76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="D77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="D78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="D79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="D80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="3:8" ht="15.5">
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="8"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="E76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="E77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="E78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="E79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="E80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="3:9" ht="15.6">
       <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="3:8" ht="15.5">
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="3:9" ht="15.6">
       <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="H82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="I82" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
